--- a/output/rejected_customers.xlsx
+++ b/output/rejected_customers.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>bot_response</t>
+          <t>Gen_AI_Response</t>
         </is>
       </c>
     </row>
@@ -556,16 +556,17 @@
       <c r="O2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-1. Savings Account: As the customer has been related with the bank for 11 years, it is likely that they already have a savings account. However, you can suggest different types of savings accounts that offer higher interest rates or additional benefits such as cashback or rewards.
-2. Investment Products: With a stable income and a long relationship with the bank, the customer may be interested in investing their money. You can suggest different investment options such as mutual funds, stocks, or bonds based on their risk appetite and financial goals.
-3. Retirement Planning: As the customer is in their mid-30s, it is a good time to start planning for retirement. You can offer retirement planning services and suggest different retirement accounts such as 401(k) or IRA.
-4. Insurance Products: With a family of two, the customer may be interested in protecting their loved ones in case of any unforeseen events. You can suggest different insurance products such as life insurance, health insurance, or home insurance.
-5. Online and Mobile Banking: As the customer is tech-savvy with a good credit card usage, they may be interested in managing their finances online. You can suggest the bank's online and mobile banking services, which offer convenience and easy access to their accounts.
-6. Financial Planning Services: With a good income and a mortgage, the customer may benefit from financial planning services. You can offer personalized financial planning services to help them manage their finances and achieve their financial goals.
-7. Credit Monitoring: Although the customer may not be eligible for a credit card, you can still offer credit monitoring services to help them keep track of their credit score and improve it over time.
-8. Education Loans: As the customer has a low education level, you can suggest education loans to help them pursue higher education and improve their career prospects.
-9. Remittance Services: If the customer has family members living abroad, you can suggest remittance services to help them transfer money easily and securely.
-10. Personal Financial Advisor: Lastly, you can offer the customer a personal financial advisor who can guide them in making financial decisions and help them achieve their financial goals.</t>
+Based on the information provided, here are some banking service suggestions for this person:
+1. Savings Account: Since this person has been associated with the bank for 11 years and has a stable income, they may benefit from opening a savings account to save and grow their money.
+2. Checking Account: A checking account can provide easy access to their funds and help them manage their day-to-day expenses.
+3. Online Banking: This person can benefit from using online banking services to conveniently manage their accounts, pay bills, and transfer funds.
+4. Investment Services: With a stable income and a long association with the bank, this person may be interested in exploring investment options such as mutual funds, stocks, or bonds.
+5. Retirement Planning: As this person is in their mid-30s, it may be a good time to start planning for retirement. The bank can offer various retirement planning services and products to help them save for their future.
+6. Insurance: The bank can offer various insurance products such as life insurance, health insurance, or property insurance to provide financial security to this person and their family.
+7. Financial Planning: This person may benefit from financial planning services offered by the bank to help them achieve their financial goals and make the most of their income.
+8. Mobile Banking: With a high credit card usage, this person may be tech-savvy and may appreciate the convenience of mobile banking services to manage their finances on the go.
+9. Personalized Customer Service: As this person has been associated with the bank for a long time, they may appreciate personalized customer service and assistance with their banking needs.
+10. Education Loans: Since this person has a low education level, they may benefit from education loans to pursue higher education and improve their career prospects.</t>
         </is>
       </c>
     </row>
@@ -615,17 +616,16 @@
       <c r="O3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, here are some banking service suggestions we can provide to this person:
-1. Savings account: As this person has been related with the bank for 20 years, they may already have a savings account with the bank. However, if they do not, it would be beneficial for them to open one to save their income and earn interest.
-2. Checking account: A checking account would allow this person to easily manage their day-to-day expenses and make transactions.
-3. Online banking: With the advancement of technology, online banking has become a convenient and secure way to manage finances. This person can access their accounts, make payments, and track their expenses online.
-4. Investment options: With an income of 158 thousand, this person may be interested in investing their money. The bank can offer them various investment options such as mutual funds, stocks, and bonds.
-5. Retirement planning: As this person is 46 years old, it would be wise for them to start planning for their retirement. The bank can provide them with retirement planning services and help them save for their future.
-6. Insurance: The bank can offer various insurance options such as life insurance, health insurance, and property insurance to protect this person and their family.
-7. Financial advice: With their income and years of experience with the bank, this person may benefit from financial advice to help them make informed decisions about their finances.
-8. Mobile banking: Similar to online banking, mobile banking allows this person to access their accounts and make transactions on their mobile devices.
-9. Rewards program: As this person has a credit card usage of 2.4, they may be interested in a rewards program that offers them benefits and discounts on their purchases.
-10. Personalized services: With their long-standing relationship with the bank, this person may appreciate personalized services such as a dedicated relationship manager who can assist them with their banking needs.</t>
+Based on the information provided, here are some banking service suggestions for this person:
+1. Checking and Savings Accounts: Since this person has been related to the bank for 20 years, they may already have a checking and savings account. However, it would be beneficial to suggest reviewing their current accounts and potentially upgrading to a higher interest rate or adding additional features such as overdraft protection.
+2. Investment Accounts: With an income of 158 thousand, this person may be interested in investing their money. Suggest opening an investment account with the bank and offering investment options such as stocks, mutual funds, and retirement accounts.
+3. Online and Mobile Banking: As this person is in their mid-40s, they may be comfortable with technology and would appreciate the convenience of online and mobile banking. Suggest setting up these services for them and showing them how to use them.
+4. Financial Planning Services: With a stable income and 20 years of relationship with the bank, this person may be interested in financial planning services. Suggest setting up a meeting with a financial advisor to discuss their long-term financial goals and create a plan to achieve them.
+5. Insurance Services: Since this person has a family member and a decent income, they may be interested in insurance services such as life insurance, health insurance, and home insurance. Suggest reviewing their current insurance coverage and offering options that may better suit their needs.
+6. Rewards Programs: With an average credit card usage of 2.4, this person may be interested in rewards programs. Suggest enrolling them in the bank's rewards program and explaining the benefits they can receive by using their credit card for everyday purchases.
+7. Financial Education: As this person has an education level of 1, they may benefit from financial education services. Suggest offering financial literacy workshops or online resources to help them better understand their finances and make informed decisions.
+8. Personalized Customer Service: With 20 years of relationship with the bank, this person may appreciate personalized customer service. Suggest assigning a dedicated banker to them who can assist with any banking needs and provide a more personalized experience.
+Overall, it is important to understand this person's financial goals and needs before making any specific suggestions. By offering a range of banking services and tailoring them to their individual needs, you can provide a valuable and personalized experience for this customer.</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       <c r="O4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, here are some banking service suggestions that could be provided to this person:
-1. Savings account: As this person has been related with the bank for 32 years, they may already have a savings account. However, it could be suggested to them to open a high-yield savings account to earn more interest on their savings.
-2. Checking account: A checking account could be suggested to this person for their day-to-day banking needs. They could also be informed about the various features and benefits of the checking account, such as online banking, mobile banking, and overdraft protection.
-3. Retirement account: As this person is 57 years old, it could be suggested to them to open a retirement account, such as an IRA or 401(k), to start saving for their retirement.
-4. Investment options: With an income of 84 thousand and a long relationship with the bank, this person could be a potential candidate for investment options such as mutual funds, stocks, or bonds. They could be informed about the potential returns and risks associated with these investment options.
-5. Insurance products: As this person has a family of 3, it could be suggested to them to consider insurance products such as life insurance, health insurance, or disability insurance to protect their family's financial future.
-6. Online and mobile banking: This person could be informed about the convenience and ease of managing their finances through online and mobile banking. They could be encouraged to enroll in these services to make banking more convenient for them.
-7. Financial planning services: With an income of 84 thousand, this person could benefit from financial planning services offered by the bank. They could be informed about the various services offered, such as budgeting, retirement planning, and investment planning.
-8. Credit counseling: As this person has a credit card usage of 1.6, it could be suggested to them to seek credit counseling services to manage their credit card debt and improve their credit score.
-9. Education loans: As this person has an education level of 3, it could be suggested to them to consider education loans for themselves or their family members to pursue higher education.
-10. Personalized financial advice: Lastly, this person could be offered personalized financial advice based on their specific financial goals and needs. This could help them make informed decisions about their finances and achieve their financial goals.</t>
+Based on the information provided, here are some banking service suggestions we can provide to this person:
+1. Savings account: As this person has been related with the bank for 32 years, they may already have a savings account. However, if they do not, it would be a good idea to suggest opening one to help them save and manage their money.
+2. Checking account: A checking account can help this person manage their day-to-day expenses and provide easy access to their funds.
+3. Retirement account: At the age of 57, this person may be thinking about retirement. Suggest opening a retirement account to help them save for their future.
+4. Investment options: With an income of 84 thousand, this person may have some extra funds that they can invest. Suggest different investment options such as stocks, mutual funds, or bonds.
+5. Online banking: As this person is using credit cards and has a good education level, they may be comfortable with technology. Suggest enrolling in online banking to make managing their finances easier and more convenient.
+6. Financial planning services: This person may benefit from financial planning services to help them make the most of their income and plan for their future financial goals.
+7. Insurance products: With a family of three, this person may be interested in insurance products such as life insurance, health insurance, or home insurance. Suggest exploring these options to protect their family and assets.
+8. Rewards program: As this person has a credit card usage of 1.6, they may be interested in a rewards program that can help them earn points or cashback on their purchases.
+9. Budgeting tools: Suggest using budgeting tools or apps to help this person track their expenses and manage their finances more effectively.
+10. Financial education resources: As this person has a good education level, they may be interested in learning more about personal finance. Suggest providing them with resources such as articles, webinars, or workshops to help them improve their financial knowledge.</t>
         </is>
       </c>
     </row>
@@ -735,15 +735,17 @@
       <c r="O5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, here are some banking service suggestions we can provide to this person:
-1. Checking and Savings Accounts: As this person has been related with the bank for 20 years, it is likely that they already have a checking and savings account with us. We can offer them different types of accounts with competitive interest rates and convenient features such as online banking and mobile banking.
-2. Investment Services: With an income of 104 thousand and a long relationship with the bank, this person may be interested in investing their money. We can offer them various investment options such as mutual funds, stocks, and bonds, based on their risk tolerance and financial goals.
-3. Retirement Planning: As this person is in their late 40s, it is important for them to start planning for their retirement. We can offer them retirement planning services, such as Individual Retirement Accounts (IRAs) and 401(k) plans, to help them save for their future.
-4. Insurance Services: With a family member and a mortgage, this person may be interested in protecting their loved ones and assets. We can offer them different types of insurance, such as life insurance and home insurance, to provide them with financial security.
-5. Online and Mobile Banking: As this person has a high credit card usage, it is likely that they are comfortable with technology. We can offer them online and mobile banking services, allowing them to manage their accounts, pay bills, and transfer money conveniently.
-6. Financial Planning: With an income of 104 thousand, this person may benefit from financial planning services. We can offer them personalized financial advice and help them create a budget, save for their goals, and manage their debt.
-7. Credit Monitoring: As our ML model has predicted that we cannot offer this person a credit card, we can offer them credit monitoring services. This will help them keep track of their credit score and report, and take steps to improve it if needed.
-8. Personalized Customer Service: With a long relationship with the bank, this person may appreciate personalized customer service. We can assign them a dedicated relationship manager who can assist them with any banking needs and provide them with a seamless banking experience.</t>
+Based on the information provided, here are some banking service suggestions that we can provide to this person:
+1. Savings Account: As this person has been related with the bank for 20 years, they may already have a savings account. However, we can suggest different types of savings accounts that offer higher interest rates or additional benefits such as cashback or rewards.
+2. Checking Account: A checking account can be suggested to this person for their day-to-day banking needs. We can highlight features such as no minimum balance requirement, free ATM withdrawals, and online banking services.
+3. Investment Products: With an income of 104 thousand, this person may be interested in investing their money. We can suggest various investment products such as mutual funds, stocks, or bonds based on their risk appetite and financial goals.
+4. Insurance Products: As this person has a family member, we can suggest insurance products such as life insurance, health insurance, or disability insurance to provide financial security for their loved ones.
+5. Online Banking Services: We can highlight the convenience and ease of managing their finances through online banking services such as bill payments, fund transfers, and mobile banking.
+6. Financial Planning Services: As this person is in their mid-40s, we can suggest financial planning services to help them plan for their retirement and achieve their long-term financial goals.
+7. Credit Monitoring Services: While we cannot provide credit card suggestions, we can offer credit monitoring services to help this person keep track of their credit score and report to ensure their financial health.
+8. Education Loan: As this person has an education level of 1, we can suggest education loan options for themselves or their family member if they are planning to pursue higher education.
+9. Remittance Services: If this person has family members living abroad, we can suggest remittance services to help them transfer money to their loved ones quickly and securely.
+10. Personalized Financial Advice: Lastly, we can offer personalized financial advice to this person based on their financial situation and goals to help them make informed decisions about their money.</t>
         </is>
       </c>
     </row>

--- a/output/rejected_customers.xlsx
+++ b/output/rejected_customers.xlsx
@@ -556,17 +556,16 @@
       <c r="O2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, here are some banking service suggestions for this person:
-1. Savings Account: Since this person has been associated with the bank for 11 years and has a stable income, they may benefit from opening a savings account to save and grow their money.
-2. Checking Account: A checking account can provide easy access to their funds and help them manage their day-to-day expenses.
-3. Online Banking: This person can benefit from using online banking services to conveniently manage their accounts, pay bills, and transfer funds.
-4. Investment Services: With a stable income and a long association with the bank, this person may be interested in exploring investment options such as mutual funds, stocks, or bonds.
-5. Retirement Planning: As this person is in their mid-30s, it may be a good time to start planning for retirement. The bank can offer various retirement planning services and products to help them save for their future.
-6. Insurance: The bank can offer various insurance products such as life insurance, health insurance, or property insurance to provide financial security to this person and their family.
-7. Financial Planning: This person may benefit from financial planning services offered by the bank to help them achieve their financial goals and make the most of their income.
-8. Mobile Banking: With a high credit card usage, this person may be tech-savvy and may appreciate the convenience of mobile banking services to manage their finances on the go.
-9. Personalized Customer Service: As this person has been associated with the bank for a long time, they may appreciate personalized customer service and assistance with their banking needs.
-10. Education Loans: Since this person has a low education level, they may benefit from education loans to pursue higher education and improve their career prospects.</t>
+1. Savings Account: As the person has been associated with the bank for 11 years and has a stable income, it would be beneficial to suggest a savings account to help them save and manage their money effectively.
+2. Checking Account: A checking account would be a convenient option for the customer to manage their day-to-day expenses and transactions.
+3. Online Banking: With a busy lifestyle, the customer may benefit from the convenience of online banking services, allowing them to access their accounts and make transactions anytime, anywhere.
+4. Investment Services: With a good income and a long-term relationship with the bank, the customer may be interested in exploring investment options such as mutual funds, stocks, or retirement plans.
+5. Insurance Services: As the customer has a family and a mortgage, it would be wise to suggest insurance services such as life insurance, health insurance, or home insurance to provide financial security and protection.
+6. Mobile Banking: For a tech-savvy customer, mobile banking services can be suggested to make banking transactions even more convenient and accessible.
+7. Financial Planning: As the customer's income and family situation may change over time, it would be beneficial to suggest financial planning services to help them achieve their long-term financial goals.
+8. Rewards Program: As the customer has a good credit card usage, they may be interested in a rewards program that offers benefits and discounts on their purchases.
+9. Personalized Customer Service: With 11 years of association with the bank, the customer may appreciate personalized customer service, such as a dedicated relationship manager, to address their banking needs and concerns.
+10. Education Loans: As the customer has a low education level, it may be beneficial to suggest education loans to help them pursue higher education and improve their career prospects.</t>
         </is>
       </c>
     </row>
@@ -616,16 +615,17 @@
       <c r="O3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, here are some banking service suggestions for this person:
-1. Checking and Savings Accounts: Since this person has been related to the bank for 20 years, they may already have a checking and savings account. However, it would be beneficial to suggest reviewing their current accounts and potentially upgrading to a higher interest rate or adding additional features such as overdraft protection.
-2. Investment Accounts: With an income of 158 thousand, this person may be interested in investing their money. Suggest opening an investment account with the bank and offering investment options such as stocks, mutual funds, and retirement accounts.
-3. Online and Mobile Banking: As this person is in their mid-40s, they may be comfortable with technology and would appreciate the convenience of online and mobile banking. Suggest setting up these services for them and showing them how to use them.
-4. Financial Planning Services: With a stable income and 20 years of relationship with the bank, this person may be interested in financial planning services. Suggest setting up a meeting with a financial advisor to discuss their long-term financial goals and create a plan to achieve them.
-5. Insurance Services: Since this person has a family member and a decent income, they may be interested in insurance services such as life insurance, health insurance, and home insurance. Suggest reviewing their current insurance coverage and offering options that may better suit their needs.
-6. Rewards Programs: With an average credit card usage of 2.4, this person may be interested in rewards programs. Suggest enrolling them in the bank's rewards program and explaining the benefits they can receive by using their credit card for everyday purchases.
-7. Financial Education: As this person has an education level of 1, they may benefit from financial education services. Suggest offering financial literacy workshops or online resources to help them better understand their finances and make informed decisions.
-8. Personalized Customer Service: With 20 years of relationship with the bank, this person may appreciate personalized customer service. Suggest assigning a dedicated banker to them who can assist with any banking needs and provide a more personalized experience.
-Overall, it is important to understand this person's financial goals and needs before making any specific suggestions. By offering a range of banking services and tailoring them to their individual needs, you can provide a valuable and personalized experience for this customer.</t>
+Based on the information provided, here are some banking service suggestions we can provide to this person:
+1. Savings account: As this person has been associated with the bank for 20 years, they may already have a savings account. However, if they don't, it would be beneficial for them to open one to save and manage their money effectively.
+2. Checking account: A checking account can help this person manage their day-to-day expenses and make transactions easily.
+3. Online banking: With the advancement of technology, online banking has become a convenient and secure way to manage finances. This person can be encouraged to use online banking services to check their account balance, make transfers, and pay bills.
+4. Investment options: As this person has a stable income and a long-term relationship with the bank, they can be offered investment options such as mutual funds, stocks, or bonds to grow their wealth.
+5. Retirement planning: At the age of 46, this person may be thinking about retirement planning. The bank can offer retirement planning services to help them save and invest for their future.
+6. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, or property insurance to provide financial security to this person and their family.
+7. Financial advice: As this person has a good income and a long-term relationship with the bank, they may benefit from financial advice. The bank can offer personalized financial advice to help them achieve their financial goals.
+8. Rewards program: As this person has a good credit card usage in average, they can be enrolled in a rewards program to earn points or cashback on their credit card transactions.
+9. Budgeting tools: The bank can provide budgeting tools or apps to help this person track their expenses and manage their finances effectively.
+10. Educational resources: As this person has a low education level, the bank can provide educational resources or workshops to help them improve their financial literacy and make informed financial decisions.</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       <c r="O4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, here are some banking service suggestions we can provide to this person:
-1. Savings account: As this person has been related with the bank for 32 years, they may already have a savings account. However, if they do not, it would be a good idea to suggest opening one to help them save and manage their money.
-2. Checking account: A checking account can help this person manage their day-to-day expenses and provide easy access to their funds.
-3. Retirement account: At the age of 57, this person may be thinking about retirement. Suggest opening a retirement account to help them save for their future.
-4. Investment options: With an income of 84 thousand, this person may have some extra funds that they can invest. Suggest different investment options such as stocks, mutual funds, or bonds.
-5. Online banking: As this person is using credit cards and has a good education level, they may be comfortable with technology. Suggest enrolling in online banking to make managing their finances easier and more convenient.
-6. Financial planning services: This person may benefit from financial planning services to help them make the most of their income and plan for their future financial goals.
-7. Insurance products: With a family of three, this person may be interested in insurance products such as life insurance, health insurance, or home insurance. Suggest exploring these options to protect their family and assets.
-8. Rewards program: As this person has a credit card usage of 1.6, they may be interested in a rewards program that can help them earn points or cashback on their purchases.
-9. Budgeting tools: Suggest using budgeting tools or apps to help this person track their expenses and manage their finances more effectively.
-10. Financial education resources: As this person has a good education level, they may be interested in learning more about personal finance. Suggest providing them with resources such as articles, webinars, or workshops to help them improve their financial knowledge.</t>
+Based on the information provided, here are some banking service suggestions that we can provide to this person:
+1. Checking and Savings Accounts: Since the person has been related with the bank for 32 years, they may already have a checking and savings account with the bank. However, we can suggest them to review their current accounts and see if there are any better options available that can offer higher interest rates or additional benefits.
+2. Retirement Accounts: As the person is 57 years old, it is important for them to start planning for their retirement. We can suggest them to open a retirement account such as an Individual Retirement Account (IRA) or a 401(k) plan to save for their future.
+3. Investment Services: With an income of 84 thousand and a good credit card usage, this person may have some extra funds that they can invest. We can offer them investment services such as stocks, mutual funds, and bonds to help them grow their wealth.
+4. Online and Mobile Banking: As the person is in their late 50s, they may prefer the convenience of online and mobile banking. We can suggest them to enroll in these services to easily manage their accounts, pay bills, and track their expenses.
+5. Financial Planning Services: With 32 years of relationship with the bank, this person may trust the bank's financial advisors. We can offer them financial planning services to help them create a personalized plan to achieve their financial goals.
+6. Insurance Services: As the person has a family of 3, we can suggest them to review their insurance coverage and offer them options for life, health, and home insurance to protect their family's financial future.
+7. Credit Monitoring: Although we cannot provide credit card suggestions, we can offer credit monitoring services to help the person keep track of their credit score and report to avoid any potential fraud or identity theft.
+8. Education Savings Accounts: With an education level of 3, this person may have children or grandchildren who are planning to attend college. We can suggest them to open an education savings account such as a 529 plan to save for their education expenses.
+9. Online Financial Education: As the person has a good credit card usage, we can suggest them to take advantage of our online financial education resources to learn more about managing their finances and improving their credit score.
+10. Personalized Customer Service: Lastly, we can assure the person that they will receive personalized customer service from our experienced staff who can assist them with</t>
         </is>
       </c>
     </row>
@@ -735,17 +735,16 @@
       <c r="O5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, here are some banking service suggestions that we can provide to this person:
-1. Savings Account: As this person has been related with the bank for 20 years, they may already have a savings account. However, we can suggest different types of savings accounts that offer higher interest rates or additional benefits such as cashback or rewards.
-2. Checking Account: A checking account can be suggested to this person for their day-to-day banking needs. We can highlight features such as no minimum balance requirement, free ATM withdrawals, and online banking services.
-3. Investment Products: With an income of 104 thousand, this person may be interested in investing their money. We can suggest various investment products such as mutual funds, stocks, or bonds based on their risk appetite and financial goals.
-4. Insurance Products: As this person has a family member, we can suggest insurance products such as life insurance, health insurance, or disability insurance to provide financial security for their loved ones.
-5. Online Banking Services: We can highlight the convenience and ease of managing their finances through online banking services such as bill payments, fund transfers, and mobile banking.
-6. Financial Planning Services: As this person is in their mid-40s, we can suggest financial planning services to help them plan for their retirement and achieve their long-term financial goals.
-7. Credit Monitoring Services: While we cannot provide credit card suggestions, we can offer credit monitoring services to help this person keep track of their credit score and report to ensure their financial health.
-8. Education Loan: As this person has an education level of 1, we can suggest education loan options for themselves or their family member if they are planning to pursue higher education.
-9. Remittance Services: If this person has family members living abroad, we can suggest remittance services to help them transfer money to their loved ones quickly and securely.
-10. Personalized Financial Advice: Lastly, we can offer personalized financial advice to this person based on their financial situation and goals to help them make informed decisions about their money.</t>
+Based on the information provided, here are some banking service suggestions we can provide to this person:
+1. Checking and Savings Accounts: As this person has been related with the bank for 20 years, they may already have a checking and savings account. However, we can suggest reviewing their current accounts and offering any new features or benefits that may be available.
+2. Investment Services: With an income of 104 thousand, this person may be interested in investing their money. We can offer them investment services such as mutual funds, stocks, and bonds.
+3. Retirement Planning: As this person is 46 years old, it is important to start planning for retirement. We can offer them retirement planning services and help them create a personalized plan to meet their financial goals.
+4. Insurance Services: With a family member and a mortgage, this person may be interested in insurance services such as life insurance, home insurance, and car insurance. We can offer them competitive rates and coverage options.
+5. Online and Mobile Banking: As this person has a credit card usage of 5.7, it is likely that they are comfortable with technology. We can suggest using our online and mobile banking services for convenience and easy access to their accounts.
+6. Financial Education: As this person has an education level of 1, they may benefit from financial education services. We can offer them resources and workshops to help them improve their financial literacy.
+7. Personalized Financial Advice: With their income and family situation, this person may benefit from personalized financial advice. We can offer them a financial advisor who can help them make informed decisions about their finances.
+8. Rewards Programs: As a long-time customer, we can offer this person rewards programs for their loyalty. This can include cashback, discounts, or other perks for using our banking services.
+Overall, we can focus on providing personalized and comprehensive financial services to this person, taking into account their age, income, and family situation. We can also offer them convenience and technology-based solutions to make their banking experience easier.</t>
         </is>
       </c>
     </row>

--- a/output/rejected_customers.xlsx
+++ b/output/rejected_customers.xlsx
@@ -556,16 +556,17 @@
       <c r="O2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-1. Savings Account: As the person has been associated with the bank for 11 years and has a stable income, it would be beneficial to suggest a savings account to help them save and manage their money effectively.
-2. Checking Account: A checking account would be a convenient option for the customer to manage their day-to-day expenses and transactions.
-3. Online Banking: With a busy lifestyle, the customer may benefit from the convenience of online banking services, allowing them to access their accounts and make transactions anytime, anywhere.
-4. Investment Services: With a good income and a long-term relationship with the bank, the customer may be interested in exploring investment options such as mutual funds, stocks, or retirement plans.
-5. Insurance Services: As the customer has a family and a mortgage, it would be wise to suggest insurance services such as life insurance, health insurance, or home insurance to provide financial security and protection.
-6. Mobile Banking: For a tech-savvy customer, mobile banking services can be suggested to make banking transactions even more convenient and accessible.
-7. Financial Planning: As the customer's income and family situation may change over time, it would be beneficial to suggest financial planning services to help them achieve their long-term financial goals.
-8. Rewards Program: As the customer has a good credit card usage, they may be interested in a rewards program that offers benefits and discounts on their purchases.
-9. Personalized Customer Service: With 11 years of association with the bank, the customer may appreciate personalized customer service, such as a dedicated relationship manager, to address their banking needs and concerns.
-10. Education Loans: As the customer has a low education level, it may be beneficial to suggest education loans to help them pursue higher education and improve their career prospects.</t>
+Based on the information provided, here are some banking service suggestions we can provide to this person:
+1. Savings account: As this person has been related with the bank for 11 years, they may already have a savings account. However, we can suggest different types of savings accounts that offer higher interest rates or other benefits.
+2. Checking account: A checking account can be useful for managing day-to-day expenses and bills. We can suggest a checking account with no or low monthly fees and other perks such as mobile banking and ATM access.
+3. Investment options: With an income of 152 thousand, this person may be interested in investing their money. We can suggest different investment options such as mutual funds, stocks, or bonds based on their risk tolerance and financial goals.
+4. Retirement planning: As this person is 36 years old, it is a good time to start planning for retirement. We can offer retirement planning services and suggest suitable retirement accounts such as a 401(k) or IRA.
+5. Insurance products: With a family of 2, this person may be interested in insurance products such as life insurance, health insurance, or home insurance. We can offer different insurance options and help them choose the right coverage for their needs.
+6. Online and mobile banking: As this person has a credit card usage of 3.9, they may be comfortable with using technology for banking. We can suggest online and mobile banking services for convenient and secure banking.
+7. Financial advice: With an income of 152 thousand, this person may have complex financial needs. We can offer financial advice and guidance on budgeting, saving, and managing their finances effectively.
+8. Refinancing options: As this person has a mortgage of 159, we can suggest refinancing options to help them save money on interest or lower their monthly payments.
+9. Credit counseling: As our ML model predicted that we cannot provide credit card or personal loan suggestions, we can offer credit counseling services to help this person improve their credit score and manage their debt effectively.
+10. Rewards and loyalty programs: As a loyal customer for 11 years, we can offer rewards and loyalty programs to this person, such as cashback or discounts on banking services, to show our appreciation and retain their business.</t>
         </is>
       </c>
     </row>
@@ -616,16 +617,16 @@
         <is>
           <t xml:space="preserve">
 Based on the information provided, here are some banking service suggestions we can provide to this person:
-1. Savings account: As this person has been associated with the bank for 20 years, they may already have a savings account. However, if they don't, it would be beneficial for them to open one to save and manage their money effectively.
-2. Checking account: A checking account can help this person manage their day-to-day expenses and make transactions easily.
-3. Online banking: With the advancement of technology, online banking has become a convenient and secure way to manage finances. This person can be encouraged to use online banking services to check their account balance, make transfers, and pay bills.
-4. Investment options: As this person has a stable income and a long-term relationship with the bank, they can be offered investment options such as mutual funds, stocks, or bonds to grow their wealth.
-5. Retirement planning: At the age of 46, this person may be thinking about retirement planning. The bank can offer retirement planning services to help them save and invest for their future.
-6. Insurance products: The bank can offer various insurance products such as life insurance, health insurance, or property insurance to provide financial security to this person and their family.
-7. Financial advice: As this person has a good income and a long-term relationship with the bank, they may benefit from financial advice. The bank can offer personalized financial advice to help them achieve their financial goals.
-8. Rewards program: As this person has a good credit card usage in average, they can be enrolled in a rewards program to earn points or cashback on their credit card transactions.
-9. Budgeting tools: The bank can provide budgeting tools or apps to help this person track their expenses and manage their finances effectively.
-10. Educational resources: As this person has a low education level, the bank can provide educational resources or workshops to help them improve their financial literacy and make informed financial decisions.</t>
+1. Checking and Savings Accounts: As this person has been related with the bank for 20 years, they may already have a checking and savings account. However, it would be beneficial to review their current accounts and suggest any upgrades or additional features that may better suit their needs.
+2. Investment Services: With an income of 158 thousand, this person may be interested in investing their money. You can suggest various investment options such as stocks, mutual funds, or retirement accounts.
+3. Online and Mobile Banking: As this person is in their mid-40s, they may be comfortable with technology and would appreciate the convenience of online and mobile banking services. This would allow them to manage their accounts, pay bills, and transfer funds easily.
+4. Financial Planning Services: With a stable income and 20 years of relationship with the bank, this person may be interested in financial planning services to help them achieve their long-term financial goals.
+5. Insurance Services: As this person has a family member and no mortgage, they may be interested in insurance services such as life insurance, health insurance, or home insurance.
+6. Personalized Customer Service: With 20 years of relationship with the bank, this person may appreciate personalized customer service. You can offer them a dedicated relationship manager who can assist them with any banking needs or concerns.
+7. Rewards and Loyalty Programs: To show appreciation for their long-term relationship, you can suggest enrolling this person in rewards and loyalty programs offered by the bank. This would allow them to earn points or cashback on their banking activities.
+8. Financial Education: As this person has an education level of 1, they may benefit from financial education services offered by the bank. This can include workshops, seminars, or online resources to help them improve their financial literacy.
+9. Safe Deposit Box: With a ZIP code of 90064, this person may live in an area prone to natural disasters. You can suggest a safe deposit box to store important documents and valuables for added security.
+10. Personalized Credit Monitoring: While we cannot offer credit card or personal loan suggestions, we can still provide personalized credit monitoring services to help this person keep track of their credit score and report. This can help them maintain a good credit standing for future financial needs.</t>
         </is>
       </c>
     </row>
@@ -676,16 +677,16 @@
         <is>
           <t xml:space="preserve">
 Based on the information provided, here are some banking service suggestions that we can provide to this person:
-1. Checking and Savings Accounts: Since the person has been related with the bank for 32 years, they may already have a checking and savings account with the bank. However, we can suggest them to review their current accounts and see if there are any better options available that can offer higher interest rates or additional benefits.
-2. Retirement Accounts: As the person is 57 years old, it is important for them to start planning for their retirement. We can suggest them to open a retirement account such as an Individual Retirement Account (IRA) or a 401(k) plan to save for their future.
-3. Investment Services: With an income of 84 thousand and a good credit card usage, this person may have some extra funds that they can invest. We can offer them investment services such as stocks, mutual funds, and bonds to help them grow their wealth.
-4. Online and Mobile Banking: As the person is in their late 50s, they may prefer the convenience of online and mobile banking. We can suggest them to enroll in these services to easily manage their accounts, pay bills, and track their expenses.
-5. Financial Planning Services: With 32 years of relationship with the bank, this person may trust the bank's financial advisors. We can offer them financial planning services to help them create a personalized plan to achieve their financial goals.
-6. Insurance Services: As the person has a family of 3, we can suggest them to review their insurance coverage and offer them options for life, health, and home insurance to protect their family's financial future.
-7. Credit Monitoring: Although we cannot provide credit card suggestions, we can offer credit monitoring services to help the person keep track of their credit score and report to avoid any potential fraud or identity theft.
-8. Education Savings Accounts: With an education level of 3, this person may have children or grandchildren who are planning to attend college. We can suggest them to open an education savings account such as a 529 plan to save for their education expenses.
-9. Online Financial Education: As the person has a good credit card usage, we can suggest them to take advantage of our online financial education resources to learn more about managing their finances and improving their credit score.
-10. Personalized Customer Service: Lastly, we can assure the person that they will receive personalized customer service from our experienced staff who can assist them with</t>
+1. Savings account: Since this person has been related with the bank for 32 years, it is likely that they have a good relationship with the bank. A savings account would be a good option for them to save their money and earn interest on it.
+2. Checking account: A checking account would be useful for this person to manage their day-to-day expenses and transactions.
+3. Retirement account: At the age of 57, this person may be thinking about retirement. A retirement account, such as an Individual Retirement Account (IRA), would be a good option for them to save for their retirement.
+4. Investment services: With an income of 84 thousand and a good credit card usage, this person may be interested in investing their money. The bank can offer investment services such as stocks, mutual funds, and bonds.
+5. Online and mobile banking: With the advancement of technology, online and mobile banking have become popular and convenient ways to manage finances. The bank can offer these services to this person for easy and quick access to their accounts.
+6. Insurance services: As this person has a family of 3, it is important for them to have insurance coverage. The bank can offer various insurance services such as life insurance, health insurance, and home insurance.
+7. Financial planning services: With an income of 84 thousand, this person may need help with financial planning. The bank can offer financial planning services to help them manage their money and plan for their future.
+8. Personalized customer service: With 32 years of relationship with the bank, this person may appreciate personalized customer service. The bank can assign a dedicated relationship manager to assist them with their banking needs.
+9. Rewards program: As this person has a good credit card usage, they may be interested in a rewards program. The bank can offer a rewards program where they can earn points for every transaction and redeem them for various rewards.
+10. Education loan: Although the ML model predicted that we cannot provide a personal loan, we can still offer an education loan to this person if they have a child who is planning to pursue higher education. This would help them manage the expenses of their child's education.</t>
         </is>
       </c>
     </row>
@@ -736,15 +737,14 @@
         <is>
           <t xml:space="preserve">
 Based on the information provided, here are some banking service suggestions we can provide to this person:
-1. Checking and Savings Accounts: As this person has been related with the bank for 20 years, they may already have a checking and savings account. However, we can suggest reviewing their current accounts and offering any new features or benefits that may be available.
-2. Investment Services: With an income of 104 thousand, this person may be interested in investing their money. We can offer them investment services such as mutual funds, stocks, and bonds.
-3. Retirement Planning: As this person is 46 years old, it is important to start planning for retirement. We can offer them retirement planning services and help them create a personalized plan to meet their financial goals.
-4. Insurance Services: With a family member and a mortgage, this person may be interested in insurance services such as life insurance, home insurance, and car insurance. We can offer them competitive rates and coverage options.
-5. Online and Mobile Banking: As this person has a credit card usage of 5.7, it is likely that they are comfortable with technology. We can suggest using our online and mobile banking services for convenience and easy access to their accounts.
-6. Financial Education: As this person has an education level of 1, they may benefit from financial education services. We can offer them resources and workshops to help them improve their financial literacy.
-7. Personalized Financial Advice: With their income and family situation, this person may benefit from personalized financial advice. We can offer them a financial advisor who can help them make informed decisions about their finances.
-8. Rewards Programs: As a long-time customer, we can offer this person rewards programs for their loyalty. This can include cashback, discounts, or other perks for using our banking services.
-Overall, we can focus on providing personalized and comprehensive financial services to this person, taking into account their age, income, and family situation. We can also offer them convenience and technology-based solutions to make their banking experience easier.</t>
+1. Checking and Savings Accounts: As this person has been related with the bank for 20 years, they may already have a checking and savings account with us. However, we can suggest reviewing their current accounts and offer any new features or benefits that may be available.
+2. Investment Services: With an income of 104 thousand, this person may be interested in investing their money. We can offer them investment services such as mutual funds, stocks, and retirement accounts.
+3. Online and Mobile Banking: As this person is tech-savvy with a credit card usage of 5.7, we can suggest our online and mobile banking services. This will allow them to conveniently manage their accounts, make payments, and track their expenses.
+4. Insurance Services: With a family member and no mortgage, this person may be interested in insurance services such as life insurance, health insurance, or home insurance. We can offer them competitive rates and personalized coverage options.
+5. Financial Planning: As this person is in their mid-40s, it may be a good time for them to start planning for their future financial goals. We can offer them financial planning services to help them create a budget, save for retirement, and plan for any major expenses.
+6. Rewards Programs: To show our appreciation for their loyalty, we can offer this person rewards programs such as cashback or points for using our banking services. This can also encourage them to use our services more frequently.
+7. Personalized Customer Service: With 20 years of relationship with the bank, we can offer this person personalized customer service. This can include a dedicated account manager, priority customer service, and special offers tailored to their needs.
+Overall, we can focus on providing this person with personalized and convenient banking services that cater to their financial needs and goals. </t>
         </is>
       </c>
     </row>

--- a/output/rejected_customers.xlsx
+++ b/output/rejected_customers.xlsx
@@ -557,16 +557,16 @@
         <is>
           <t xml:space="preserve">
 Based on the information provided, here are some banking service suggestions we can provide to this person:
-1. Savings account: As this person has been related with the bank for 11 years, they may already have a savings account. However, we can suggest different types of savings accounts that offer higher interest rates or other benefits.
-2. Checking account: A checking account can be useful for managing day-to-day expenses and bills. We can suggest a checking account with no or low monthly fees and other perks such as mobile banking and ATM access.
-3. Investment options: With an income of 152 thousand, this person may be interested in investing their money. We can suggest different investment options such as mutual funds, stocks, or bonds based on their risk tolerance and financial goals.
-4. Retirement planning: As this person is 36 years old, it is a good time to start planning for retirement. We can offer retirement planning services and suggest suitable retirement accounts such as a 401(k) or IRA.
-5. Insurance products: With a family of 2, this person may be interested in insurance products such as life insurance, health insurance, or home insurance. We can offer different insurance options and help them choose the right coverage for their needs.
-6. Online and mobile banking: As this person has a credit card usage of 3.9, they may be comfortable with using technology for banking. We can suggest online and mobile banking services for convenient and secure banking.
-7. Financial advice: With an income of 152 thousand, this person may have complex financial needs. We can offer financial advice and guidance on budgeting, saving, and managing their finances effectively.
-8. Refinancing options: As this person has a mortgage of 159, we can suggest refinancing options to help them save money on interest or lower their monthly payments.
-9. Credit counseling: As our ML model predicted that we cannot provide credit card or personal loan suggestions, we can offer credit counseling services to help this person improve their credit score and manage their debt effectively.
-10. Rewards and loyalty programs: As a loyal customer for 11 years, we can offer rewards and loyalty programs to this person, such as cashback or discounts on banking services, to show our appreciation and retain their business.</t>
+1. Savings Account: As this person has been related with the bank for 11 years, they may already have a savings account. However, if they don't, it would be beneficial for them to open one to save and manage their money effectively.
+2. Checking Account: A checking account can help this person manage their day-to-day expenses and transactions easily.
+3. Online Banking: With a busy lifestyle, online banking can be a convenient and time-saving option for this person to manage their finances.
+4. Investment Services: As this person has a good income and a long relationship with the bank, they may be interested in exploring investment options such as mutual funds, stocks, or retirement plans.
+5. Insurance Services: This person may benefit from insurance services such as life insurance, health insurance, or home insurance to protect their assets and family.
+6. Financial Planning: With a good income and family responsibilities, this person may benefit from financial planning services to help them achieve their long-term financial goals.
+7. Mobile Banking: With a credit card usage of 3.9, this person may be tech-savvy and would appreciate the convenience of managing their finances through a mobile banking app.
+8. Education Loans: As this person has a low education level (1), they may be interested in pursuing higher education. The bank can offer education loans to help them achieve their educational goals.
+9. Home Equity Line of Credit: With a mortgage of 159, this person may have built up equity in their home. A home equity line of credit can provide them with a flexible and convenient way to access funds for any future expenses.
+10. Credit Counseling: As our ML model has predicted that we cannot provide credit card or personal loan suggestions to this person, it would be beneficial to offer them credit counseling services to help them improve their credit score and financial management skills.</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       <c r="O3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, here are some banking service suggestions we can provide to this person:
-1. Checking and Savings Accounts: As this person has been related with the bank for 20 years, they may already have a checking and savings account. However, it would be beneficial to review their current accounts and suggest any upgrades or additional features that may better suit their needs.
-2. Investment Services: With an income of 158 thousand, this person may be interested in investing their money. You can suggest various investment options such as stocks, mutual funds, or retirement accounts.
-3. Online and Mobile Banking: As this person is in their mid-40s, they may be comfortable with technology and would appreciate the convenience of online and mobile banking services. This would allow them to manage their accounts, pay bills, and transfer funds easily.
-4. Financial Planning Services: With a stable income and 20 years of relationship with the bank, this person may be interested in financial planning services to help them achieve their long-term financial goals.
-5. Insurance Services: As this person has a family member and no mortgage, they may be interested in insurance services such as life insurance, health insurance, or home insurance.
-6. Personalized Customer Service: With 20 years of relationship with the bank, this person may appreciate personalized customer service. You can offer them a dedicated relationship manager who can assist them with any banking needs or concerns.
-7. Rewards and Loyalty Programs: To show appreciation for their long-term relationship, you can suggest enrolling this person in rewards and loyalty programs offered by the bank. This would allow them to earn points or cashback on their banking activities.
-8. Financial Education: As this person has an education level of 1, they may benefit from financial education services offered by the bank. This can include workshops, seminars, or online resources to help them improve their financial literacy.
-9. Safe Deposit Box: With a ZIP code of 90064, this person may live in an area prone to natural disasters. You can suggest a safe deposit box to store important documents and valuables for added security.
-10. Personalized Credit Monitoring: While we cannot offer credit card or personal loan suggestions, we can still provide personalized credit monitoring services to help this person keep track of their credit score and report. This can help them maintain a good credit standing for future financial needs.</t>
+Based on the information provided, here are some banking service suggestions that we can provide to this person:
+1. Savings Account: As this person has been related to the bank for 20 years, they may already have a savings account with the bank. However, if they do not have one, it would be a good suggestion to open a savings account to help them save and manage their money.
+2. Checking Account: A checking account can also be suggested to this person, as it will allow them to easily manage their day-to-day expenses and have access to their funds.
+3. Investment Products: With an income of 158 thousand, this person may be interested in investing their money. Suggesting investment products such as mutual funds, stocks, or bonds can help them grow their wealth.
+4. Retirement Planning: As this person is 46 years old, it would be a good suggestion to start planning for their retirement. This can include setting up a retirement account or investing in retirement plans offered by the bank.
+5. Online and Mobile Banking: With an average credit card usage of 2.4, it is safe to assume that this person is comfortable with technology. Suggesting online and mobile banking services can make it easier for them to manage their accounts and make transactions.
+6. Financial Planning Services: As this person has a good income and has been related to the bank for 20 years, they may be interested in financial planning services. This can include budgeting, debt management, and investment advice.
+7. Insurance Products: With a family member and no mortgage, this person may be interested in insurance products such as life insurance, health insurance, or home insurance. Suggesting these products can help them protect their assets and loved ones.
+8. Credit Monitoring: While we cannot provide credit card suggestions, we can still suggest credit monitoring services to help this person keep track of their credit score and report.
+9. Education Savings: As this person has an education level of 1, they may have children who are planning to go to college. Suggesting education savings plans can help them save for their children's education.
+10. Personalized Financial Advice: Lastly, it would be a good suggestion to offer personalized financial advice to this person based on their specific financial goals and needs. This can help them make informed decisions and achieve their financial goals.</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,15 @@
       <c r="O4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, here are some banking service suggestions that we can provide to this person:
-1. Savings account: Since this person has been related with the bank for 32 years, it is likely that they have a good relationship with the bank. A savings account would be a good option for them to save their money and earn interest on it.
-2. Checking account: A checking account would be useful for this person to manage their day-to-day expenses and transactions.
-3. Retirement account: At the age of 57, this person may be thinking about retirement. A retirement account, such as an Individual Retirement Account (IRA), would be a good option for them to save for their retirement.
-4. Investment services: With an income of 84 thousand and a good credit card usage, this person may be interested in investing their money. The bank can offer investment services such as stocks, mutual funds, and bonds.
-5. Online and mobile banking: With the advancement of technology, online and mobile banking have become popular and convenient ways to manage finances. The bank can offer these services to this person for easy and quick access to their accounts.
-6. Insurance services: As this person has a family of 3, it is important for them to have insurance coverage. The bank can offer various insurance services such as life insurance, health insurance, and home insurance.
-7. Financial planning services: With an income of 84 thousand, this person may need help with financial planning. The bank can offer financial planning services to help them manage their money and plan for their future.
-8. Personalized customer service: With 32 years of relationship with the bank, this person may appreciate personalized customer service. The bank can assign a dedicated relationship manager to assist them with their banking needs.
-9. Rewards program: As this person has a good credit card usage, they may be interested in a rewards program. The bank can offer a rewards program where they can earn points for every transaction and redeem them for various rewards.
-10. Education loan: Although the ML model predicted that we cannot provide a personal loan, we can still offer an education loan to this person if they have a child who is planning to pursue higher education. This would help them manage the expenses of their child's education.</t>
+Based on the information provided, here are some banking service suggestions we can provide to this person:
+1. Checking and Savings Accounts: As this person has been related with the bank for 32 years, they may already have a checking and savings account with the bank. However, we can suggest reviewing their current accounts and offering any new features or benefits that may be available.
+2. Retirement Planning: With an age of 57 and a decent income, this person may be interested in retirement planning services. We can offer them various investment options, such as IRA or 401(k) plans, to help them save for their retirement.
+3. Investment Services: This person's income of 84 thousand suggests that they may have some disposable income that they would like to invest. We can offer them investment services, such as stocks, bonds, and mutual funds, to help them grow their wealth.
+4. Online and Mobile Banking: As this person is tech-savvy with an average credit card usage of 1.6, we can suggest our online and mobile banking services. This will allow them to conveniently manage their accounts, pay bills, and track their expenses on the go.
+5. Financial Planning: With an income of 84 thousand and a family of 3, this person may benefit from financial planning services. We can offer them personalized financial advice and help them create a budget, save for their children's education, and plan for any future expenses.
+6. Insurance Services: As this person has no mortgage, we can suggest reviewing their insurance needs. We can offer them various insurance options, such as life, health, and property insurance, to ensure they have adequate coverage for themselves and their family.
+7. Credit Monitoring: Although we cannot offer credit card services, we can still suggest credit monitoring services to help this person keep track of their credit score and report. This will help them maintain a good credit score and make informed financial decisions in the future.
+Overall, we can offer this person a range of banking services, such as retirement planning, investment services, financial planning, insurance services, and credit monitoring, to help them manage their finances and achieve their financial goals. </t>
         </is>
       </c>
     </row>
@@ -737,14 +735,16 @@
         <is>
           <t xml:space="preserve">
 Based on the information provided, here are some banking service suggestions we can provide to this person:
-1. Checking and Savings Accounts: As this person has been related with the bank for 20 years, they may already have a checking and savings account with us. However, we can suggest reviewing their current accounts and offer any new features or benefits that may be available.
-2. Investment Services: With an income of 104 thousand, this person may be interested in investing their money. We can offer them investment services such as mutual funds, stocks, and retirement accounts.
-3. Online and Mobile Banking: As this person is tech-savvy with a credit card usage of 5.7, we can suggest our online and mobile banking services. This will allow them to conveniently manage their accounts, make payments, and track their expenses.
-4. Insurance Services: With a family member and no mortgage, this person may be interested in insurance services such as life insurance, health insurance, or home insurance. We can offer them competitive rates and personalized coverage options.
-5. Financial Planning: As this person is in their mid-40s, it may be a good time for them to start planning for their future financial goals. We can offer them financial planning services to help them create a budget, save for retirement, and plan for any major expenses.
-6. Rewards Programs: To show our appreciation for their loyalty, we can offer this person rewards programs such as cashback or points for using our banking services. This can also encourage them to use our services more frequently.
-7. Personalized Customer Service: With 20 years of relationship with the bank, we can offer this person personalized customer service. This can include a dedicated account manager, priority customer service, and special offers tailored to their needs.
-Overall, we can focus on providing this person with personalized and convenient banking services that cater to their financial needs and goals. </t>
+1. Savings Account: As this person has been related with the bank for 20 years, they may already have a savings account with the bank. However, if they don't, it would be a good suggestion to open one. This will help them save and manage their money effectively.
+2. Checking Account: A checking account would also be a good suggestion for this person. It will allow them to easily manage their day-to-day expenses and keep track of their spending.
+3. Online Banking: With the advancement of technology, online banking has become a convenient and secure way to manage finances. This person can be encouraged to sign up for online banking services to easily access their accounts, make payments, and track their transactions.
+4. Investment Services: With an income of 104 thousand, this person may be interested in investing their money. Suggesting investment services such as mutual funds, stocks, or retirement plans can help them grow their wealth.
+5. Insurance Services: As this person has a family member, it would be a good suggestion to offer them insurance services such as life insurance, health insurance, or home insurance to protect their family's financial future.
+6. Financial Planning: This person may benefit from financial planning services to help them set financial goals, create a budget, and plan for their future.
+7. Credit Monitoring: Although our model predicted that we cannot provide a credit card suggestion, it would still be beneficial to offer credit monitoring services to this person. This will help them keep track of their credit score and report, and identify any potential fraud or errors.
+8. Education Loans: As this person has a low education level, they may be interested in furthering their education. Suggesting education loans can help them achieve their educational goals.
+9. Remittance Services: If this person has family members living abroad, they may need to send money to them. Suggesting remittance services can help them transfer money easily and securely.
+10. Financial Education: Lastly, it would be beneficial to offer financial education services to this person. This can help them improve their financial literacy and make informed decisions about their money.</t>
         </is>
       </c>
     </row>

--- a/output/rejected_customers.xlsx
+++ b/output/rejected_customers.xlsx
@@ -557,16 +557,16 @@
         <is>
           <t xml:space="preserve">
 Based on the information provided, here are some banking service suggestions we can provide to this person:
-1. Savings Account: As this person has been related with the bank for 11 years, they may already have a savings account. However, if they don't, it would be beneficial for them to open one to save and manage their money effectively.
-2. Checking Account: A checking account can help this person manage their day-to-day expenses and transactions easily.
-3. Online Banking: With a busy lifestyle, online banking can be a convenient and time-saving option for this person to manage their finances.
-4. Investment Services: As this person has a good income and a long relationship with the bank, they may be interested in exploring investment options such as mutual funds, stocks, or retirement plans.
-5. Insurance Services: This person may benefit from insurance services such as life insurance, health insurance, or home insurance to protect their assets and family.
-6. Financial Planning: With a good income and family responsibilities, this person may benefit from financial planning services to help them achieve their long-term financial goals.
-7. Mobile Banking: With a credit card usage of 3.9, this person may be tech-savvy and would appreciate the convenience of managing their finances through a mobile banking app.
-8. Education Loans: As this person has a low education level (1), they may be interested in pursuing higher education. The bank can offer education loans to help them achieve their educational goals.
-9. Home Equity Line of Credit: With a mortgage of 159, this person may have built up equity in their home. A home equity line of credit can provide them with a flexible and convenient way to access funds for any future expenses.
-10. Credit Counseling: As our ML model has predicted that we cannot provide credit card or personal loan suggestions to this person, it would be beneficial to offer them credit counseling services to help them improve their credit score and financial management skills.</t>
+1. Savings Account: As this person has been associated with the bank for 11 years and has a stable income, we can suggest opening a savings account to help them save and manage their money effectively.
+2. Checking Account: A checking account can be recommended to this person for their day-to-day banking needs, such as paying bills, making purchases, and managing their expenses.
+3. Online Banking: With a busy lifestyle, online banking can be a convenient and efficient way for this person to manage their finances. We can suggest our online banking services to them, which will allow them to access their accounts, make transactions, and track their spending from anywhere.
+4. Investment Options: As this person has a good income and a long association with the bank, we can suggest exploring investment options such as mutual funds, stocks, or bonds to help them grow their wealth.
+5. Retirement Planning: With a stable income and a long-term relationship with the bank, we can recommend our retirement planning services to help this person plan for their future and achieve their financial goals.
+6. Insurance Products: We can suggest various insurance products, such as life insurance, health insurance, or home insurance, to provide financial security to this person and their family.
+7. Financial Advice: As this person has a good credit card usage and a mortgage, we can offer them financial advice on how to manage their debt effectively and improve their credit score.
+8. Personalized Banking Services: With a family of two and a stable income, we can suggest our personalized banking services, such as relationship managers, to provide tailored solutions and personalized support to this person.
+9. Credit Score Monitoring: As this person has a good credit card usage, we can offer them credit score monitoring services to help them keep track of their credit score and take necessary steps to maintain or improve it.
+10. Financial Education: As this person has a low education level, we can offer financial education programs to help them understand and manage their finances better. This can include budgeting, saving, and investing tips, as well as information on various banking products and services.</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       <c r="O3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the information provided, here are some banking service suggestions that we can provide to this person:
-1. Savings Account: As this person has been related to the bank for 20 years, they may already have a savings account with the bank. However, if they do not have one, it would be a good suggestion to open a savings account to help them save and manage their money.
-2. Checking Account: A checking account can also be suggested to this person, as it will allow them to easily manage their day-to-day expenses and have access to their funds.
-3. Investment Products: With an income of 158 thousand, this person may be interested in investing their money. Suggesting investment products such as mutual funds, stocks, or bonds can help them grow their wealth.
-4. Retirement Planning: As this person is 46 years old, it would be a good suggestion to start planning for their retirement. This can include setting up a retirement account or investing in retirement plans offered by the bank.
-5. Online and Mobile Banking: With an average credit card usage of 2.4, it is safe to assume that this person is comfortable with technology. Suggesting online and mobile banking services can make it easier for them to manage their accounts and make transactions.
-6. Financial Planning Services: As this person has a good income and has been related to the bank for 20 years, they may be interested in financial planning services. This can include budgeting, debt management, and investment advice.
-7. Insurance Products: With a family member and no mortgage, this person may be interested in insurance products such as life insurance, health insurance, or home insurance. Suggesting these products can help them protect their assets and loved ones.
-8. Credit Monitoring: While we cannot provide credit card suggestions, we can still suggest credit monitoring services to help this person keep track of their credit score and report.
-9. Education Savings: As this person has an education level of 1, they may have children who are planning to go to college. Suggesting education savings plans can help them save for their children's education.
-10. Personalized Financial Advice: Lastly, it would be a good suggestion to offer personalized financial advice to this person based on their specific financial goals and needs. This can help them make informed decisions and achieve their financial goals.</t>
+Based on the information provided, here are some banking service suggestions we can provide to this person:
+1. Savings account: As this person has been related with the bank for 20 years and has a stable income, they may benefit from opening a savings account to save and grow their money.
+2. Checking account: A checking account can provide easy access to their funds and help them manage their expenses.
+3. Online banking: With their busy lifestyle, online banking can be a convenient and efficient way for them to manage their finances.
+4. Investment options: With a good income and long-term relationship with the bank, this person may be interested in exploring investment options such as mutual funds, stocks, or bonds.
+5. Retirement planning: As this person is in their mid-40s, it may be a good time for them to start planning for their retirement. The bank can offer retirement planning services and products to help them save for their future.
+6. Insurance: With a family member and a mortgage, this person may benefit from insurance products such as life insurance, health insurance, or home insurance.
+7. Financial advice: As this person has a good income and a long-term relationship with the bank, they may benefit from seeking financial advice from the bank's financial advisors to help them make informed decisions about their finances.
+8. Rewards program: As this person has a good credit card usage, they may be interested in a rewards program that offers benefits and discounts on their purchases.
+9. Mobile banking: With their busy lifestyle, mobile banking can be a convenient way for this person to manage their finances on the go.
+10. Personalized services: As this person has been related with the bank for 20 years, they may appreciate personalized services such as priority customer support, personalized financial advice, or exclusive offers.</t>
         </is>
       </c>
     </row>
@@ -677,14 +677,16 @@
         <is>
           <t xml:space="preserve">
 Based on the information provided, here are some banking service suggestions we can provide to this person:
-1. Checking and Savings Accounts: As this person has been related with the bank for 32 years, they may already have a checking and savings account with the bank. However, we can suggest reviewing their current accounts and offering any new features or benefits that may be available.
-2. Retirement Planning: With an age of 57 and a decent income, this person may be interested in retirement planning services. We can offer them various investment options, such as IRA or 401(k) plans, to help them save for their retirement.
-3. Investment Services: This person's income of 84 thousand suggests that they may have some disposable income that they would like to invest. We can offer them investment services, such as stocks, bonds, and mutual funds, to help them grow their wealth.
-4. Online and Mobile Banking: As this person is tech-savvy with an average credit card usage of 1.6, we can suggest our online and mobile banking services. This will allow them to conveniently manage their accounts, pay bills, and track their expenses on the go.
-5. Financial Planning: With an income of 84 thousand and a family of 3, this person may benefit from financial planning services. We can offer them personalized financial advice and help them create a budget, save for their children's education, and plan for any future expenses.
-6. Insurance Services: As this person has no mortgage, we can suggest reviewing their insurance needs. We can offer them various insurance options, such as life, health, and property insurance, to ensure they have adequate coverage for themselves and their family.
-7. Credit Monitoring: Although we cannot offer credit card services, we can still suggest credit monitoring services to help this person keep track of their credit score and report. This will help them maintain a good credit score and make informed financial decisions in the future.
-Overall, we can offer this person a range of banking services, such as retirement planning, investment services, financial planning, insurance services, and credit monitoring, to help them manage their finances and achieve their financial goals. </t>
+1. Checking and Savings Accounts: Since the person has been related with the bank for 32 years, they may already have a checking and savings account with the bank. However, it is always a good idea to review their current accounts and suggest any updates or changes that may benefit them.
+2. Retirement Planning: With an age of 57 and a relatively high income, this person may be interested in retirement planning services. This could include options such as Individual Retirement Accounts (IRAs) or 401(k) plans.
+3. Investment Services: With a high income and a long relationship with the bank, this person may be interested in investing some of their money. The bank can offer investment services such as stocks, bonds, mutual funds, and other investment options.
+4. Online and Mobile Banking: As a convenience for the customer, the bank can suggest using online and mobile banking services to manage their accounts and transactions easily and securely.
+5. Insurance Services: With a family of 3, this person may be interested in insurance services such as life insurance, health insurance, or home insurance. The bank can offer these services or refer the customer to a trusted insurance provider.
+6. Financial Planning: The bank can offer financial planning services to help this person manage their income, expenses, and investments effectively. This can also include creating a budget and setting financial goals.
+7. Credit Monitoring: Although the customer may not be eligible for a credit card, the bank can still offer credit monitoring services to help them keep track of their credit score and report.
+8. Online Bill Payment: The bank can suggest using online bill payment services to make it easier for the customer to pay their bills on time and avoid late fees.
+9. Education Savings: With an education level of 3, this person may have children who are planning to attend college. The bank can offer education savings options such as 529 plans to help them save for their children's education.
+10. Personalized Financial Advice: Lastly, the bank can offer personalized financial advice to this person based on their specific financial situation and goals. This can help them make informed decisions about their money and achieve their financial objectives.</t>
         </is>
       </c>
     </row>
@@ -735,16 +737,14 @@
         <is>
           <t xml:space="preserve">
 Based on the information provided, here are some banking service suggestions we can provide to this person:
-1. Savings Account: As this person has been related with the bank for 20 years, they may already have a savings account with the bank. However, if they don't, it would be a good suggestion to open one. This will help them save and manage their money effectively.
-2. Checking Account: A checking account would also be a good suggestion for this person. It will allow them to easily manage their day-to-day expenses and keep track of their spending.
-3. Online Banking: With the advancement of technology, online banking has become a convenient and secure way to manage finances. This person can be encouraged to sign up for online banking services to easily access their accounts, make payments, and track their transactions.
-4. Investment Services: With an income of 104 thousand, this person may be interested in investing their money. Suggesting investment services such as mutual funds, stocks, or retirement plans can help them grow their wealth.
-5. Insurance Services: As this person has a family member, it would be a good suggestion to offer them insurance services such as life insurance, health insurance, or home insurance to protect their family's financial future.
-6. Financial Planning: This person may benefit from financial planning services to help them set financial goals, create a budget, and plan for their future.
-7. Credit Monitoring: Although our model predicted that we cannot provide a credit card suggestion, it would still be beneficial to offer credit monitoring services to this person. This will help them keep track of their credit score and report, and identify any potential fraud or errors.
-8. Education Loans: As this person has a low education level, they may be interested in furthering their education. Suggesting education loans can help them achieve their educational goals.
-9. Remittance Services: If this person has family members living abroad, they may need to send money to them. Suggesting remittance services can help them transfer money easily and securely.
-10. Financial Education: Lastly, it would be beneficial to offer financial education services to this person. This can help them improve their financial literacy and make informed decisions about their money.</t>
+1. Savings account: As this person has been related with the bank for 20 years, they may already have a savings account with the bank. However, if they don't, it would be a good idea to suggest opening one to help them save and manage their money effectively.
+2. Checking account: A checking account can help this person manage their day-to-day expenses and transactions. It can also come with features such as online banking and mobile banking, making it convenient for them to access their funds.
+3. Investment options: With an income of 104 thousand, this person may be interested in investing their money. You can suggest different investment options such as mutual funds, stocks, or retirement accounts to help them grow their wealth.
+4. Insurance products: As this person has a family member, it would be wise to suggest insurance products such as life insurance, health insurance, or disability insurance to protect their loved ones in case of any unforeseen events.
+5. Online and mobile banking: With a credit card usage of 5.7, it is evident that this person is comfortable with digital transactions. You can suggest using online and mobile banking services to make their banking experience more convenient and efficient.
+6. Financial planning services: As this person is in their mid-40s, it would be a good idea to suggest financial planning services to help them plan for their future and achieve their financial goals.
+7. Credit counseling: If this person has a history of credit card usage, it would be beneficial to suggest credit counseling services to help them manage their debt and improve their credit score.
+8. Personalized financial advice: With their income and years related with the bank, this person may benefit from personalized financial advice. You can suggest setting up a meeting with a financial advisor to discuss their financial goals and create a plan to achieve them.</t>
         </is>
       </c>
     </row>

--- a/output/rejected_customers.xlsx
+++ b/output/rejected_customers.xlsx
@@ -557,16 +557,16 @@
         <is>
           <t xml:space="preserve">
 Based on the information provided, here are some banking service suggestions we can provide to this person:
-1. Savings Account: As this person has been associated with the bank for 11 years and has a stable income, we can suggest opening a savings account to help them save and manage their money effectively.
-2. Checking Account: A checking account can be recommended to this person for their day-to-day banking needs, such as paying bills, making purchases, and managing their expenses.
-3. Online Banking: With a busy lifestyle, online banking can be a convenient and efficient way for this person to manage their finances. We can suggest our online banking services to them, which will allow them to access their accounts, make transactions, and track their spending from anywhere.
-4. Investment Options: As this person has a good income and a long association with the bank, we can suggest exploring investment options such as mutual funds, stocks, or bonds to help them grow their wealth.
-5. Retirement Planning: With a stable income and a long-term relationship with the bank, we can recommend our retirement planning services to help this person plan for their future and achieve their financial goals.
-6. Insurance Products: We can suggest various insurance products, such as life insurance, health insurance, or home insurance, to provide financial security to this person and their family.
-7. Financial Advice: As this person has a good credit card usage and a mortgage, we can offer them financial advice on how to manage their debt effectively and improve their credit score.
-8. Personalized Banking Services: With a family of two and a stable income, we can suggest our personalized banking services, such as relationship managers, to provide tailored solutions and personalized support to this person.
-9. Credit Score Monitoring: As this person has a good credit card usage, we can offer them credit score monitoring services to help them keep track of their credit score and take necessary steps to maintain or improve it.
-10. Financial Education: As this person has a low education level, we can offer financial education programs to help them understand and manage their finances better. This can include budgeting, saving, and investing tips, as well as information on various banking products and services.</t>
+1. Savings Account: As this person has been related with the bank for 11 years, they may already have a savings account with the bank. However, if they do not, it would be a good suggestion to open one. This will help them save and manage their money effectively.
+2. Checking Account: A checking account can be useful for this person to manage their day-to-day expenses and transactions. It can also provide them with easy access to their funds.
+3. Online Banking: With a busy lifestyle, online banking can be a convenient option for this person to manage their accounts, pay bills, and transfer funds.
+4. Investment Services: As this person has a good income and a mortgage, it would be beneficial for them to explore investment options such as mutual funds, stocks, or retirement accounts to grow their wealth.
+5. Insurance Services: It is important for this person to protect their assets and family. Therefore, suggesting insurance services such as life, health, and home insurance can be beneficial.
+6. Financial Planning: As this person has a good income and family members, it would be wise to suggest financial planning services to help them create a budget, plan for their future, and achieve their financial goals.
+7. Mobile Banking: With a high credit card usage, this person may benefit from using mobile banking to track their expenses and manage their credit card payments.
+8. Rewards Program: As this person has a good credit card usage, suggesting a rewards program can be a good way to incentivize them to continue using their credit card and earn rewards on their purchases.
+9. Personalized Financial Advice: It would be helpful to offer this person personalized financial advice based on their specific financial situation and goals. This can help them make informed decisions and manage their finances effectively.
+10. Financial Education: As this person has a low education level, it would be beneficial to offer financial education services to help them understand basic financial concepts and improve their financial literacy.</t>
         </is>
       </c>
     </row>
@@ -617,16 +617,16 @@
         <is>
           <t xml:space="preserve">
 Based on the information provided, here are some banking service suggestions we can provide to this person:
-1. Savings account: As this person has been related with the bank for 20 years and has a stable income, they may benefit from opening a savings account to save and grow their money.
-2. Checking account: A checking account can provide easy access to their funds and help them manage their expenses.
-3. Online banking: With their busy lifestyle, online banking can be a convenient and efficient way for them to manage their finances.
-4. Investment options: With a good income and long-term relationship with the bank, this person may be interested in exploring investment options such as mutual funds, stocks, or bonds.
-5. Retirement planning: As this person is in their mid-40s, it may be a good time for them to start planning for their retirement. The bank can offer retirement planning services and products to help them save for their future.
-6. Insurance: With a family member and a mortgage, this person may benefit from insurance products such as life insurance, health insurance, or home insurance.
-7. Financial advice: As this person has a good income and a long-term relationship with the bank, they may benefit from seeking financial advice from the bank's financial advisors to help them make informed decisions about their finances.
-8. Rewards program: As this person has a good credit card usage, they may be interested in a rewards program that offers benefits and discounts on their purchases.
-9. Mobile banking: With their busy lifestyle, mobile banking can be a convenient way for this person to manage their finances on the go.
-10. Personalized services: As this person has been related with the bank for 20 years, they may appreciate personalized services such as priority customer support, personalized financial advice, or exclusive offers.</t>
+1. Savings account: Since the person has been related with the bank for 20 years, they may already have a savings account. However, we can suggest them to open a high-yield savings account to help them save and earn more interest on their money.
+2. Investment options: With an income of 158 thousand and a long relationship with the bank, this person may be interested in investing their money. We can suggest various investment options such as mutual funds, stocks, or retirement accounts.
+3. Online banking: As the person is in their mid-40s, they may be comfortable with technology and may benefit from using online banking services. This will allow them to manage their finances conveniently and securely.
+4. Insurance products: We can suggest various insurance products such as life insurance, health insurance, or home insurance to provide financial security to the person and their family.
+5. Financial planning services: With a decent income and a long relationship with the bank, this person may be interested in financial planning services to help them achieve their long-term financial goals.
+6. Rewards program: Since the person has a credit card usage of 2.4, we can suggest them to enroll in our rewards program to earn points or cashback on their purchases.
+7. Budgeting tools: We can provide budgeting tools and resources to help the person manage their finances effectively and reach their financial goals.
+8. Online bill payment: We can suggest the person to use our online bill payment service to make their bill payments easier and more convenient.
+9. Personalized financial advice: As the person has been related with the bank for 20 years, we can offer them personalized financial advice based on their financial goals and needs.
+10. Referral program: We can encourage the person to refer their family and friends to our bank and earn rewards or bonuses for each successful referral.</t>
         </is>
       </c>
     </row>
@@ -677,16 +677,16 @@
         <is>
           <t xml:space="preserve">
 Based on the information provided, here are some banking service suggestions we can provide to this person:
-1. Checking and Savings Accounts: Since the person has been related with the bank for 32 years, they may already have a checking and savings account with the bank. However, it is always a good idea to review their current accounts and suggest any updates or changes that may benefit them.
-2. Retirement Planning: With an age of 57 and a relatively high income, this person may be interested in retirement planning services. This could include options such as Individual Retirement Accounts (IRAs) or 401(k) plans.
-3. Investment Services: With a high income and a long relationship with the bank, this person may be interested in investing some of their money. The bank can offer investment services such as stocks, bonds, mutual funds, and other investment options.
-4. Online and Mobile Banking: As a convenience for the customer, the bank can suggest using online and mobile banking services to manage their accounts and transactions easily and securely.
-5. Insurance Services: With a family of 3, this person may be interested in insurance services such as life insurance, health insurance, or home insurance. The bank can offer these services or refer the customer to a trusted insurance provider.
-6. Financial Planning: The bank can offer financial planning services to help this person manage their income, expenses, and investments effectively. This can also include creating a budget and setting financial goals.
-7. Credit Monitoring: Although the customer may not be eligible for a credit card, the bank can still offer credit monitoring services to help them keep track of their credit score and report.
-8. Online Bill Payment: The bank can suggest using online bill payment services to make it easier for the customer to pay their bills on time and avoid late fees.
-9. Education Savings: With an education level of 3, this person may have children who are planning to attend college. The bank can offer education savings options such as 529 plans to help them save for their children's education.
-10. Personalized Financial Advice: Lastly, the bank can offer personalized financial advice to this person based on their specific financial situation and goals. This can help them make informed decisions about their money and achieve their financial objectives.</t>
+1. Savings Account: As this person has been associated with the bank for 32 years, they may already have a savings account. However, if they do not, it would be beneficial for them to open one to save their income and earn interest on it.
+2. Checking Account: A checking account would allow this person to easily manage their day-to-day expenses and bills. It would also provide them with the convenience of online banking and mobile banking.
+3. Retirement Savings Account: As this person is 57 years old, it would be wise for them to start planning for their retirement. A retirement savings account would help them save for their future and provide them with tax benefits.
+4. Investment Services: With an income of 84 thousand, this person may have some extra funds that they can invest. The bank can offer them various investment services such as mutual funds, stocks, and bonds.
+5. Insurance Services: As this person has a family of 3, it would be important for them to have insurance coverage. The bank can offer them life insurance, health insurance, and other insurance services to protect their family's financial future.
+6. Online and Mobile Banking: With an average credit card usage of 1.6, it is evident that this person is comfortable with technology. The bank can offer them online and mobile banking services for easy and convenient access to their accounts.
+7. Financial Planning Services: As this person has a good income and is approaching retirement age, it would be beneficial for them to seek financial planning services from the bank. This would help them plan for their future and make informed financial decisions.
+8. Credit Monitoring Services: Although we cannot offer a credit card to this person, we can still provide them with credit monitoring services to help them keep track of their credit score and report.
+9. Education Savings Account: As this person has an education level of 3, they may have children or grandchildren who are planning to pursue higher education. The bank can offer them an education savings account to help them save for their loved one's education.
+10. Personalized Financial Advice: With 32 years of association with the bank, this person may have built a good relationship with the bank. The bank can offer them personalized financial advice based on their specific needs and goals.</t>
         </is>
       </c>
     </row>
@@ -737,14 +737,16 @@
         <is>
           <t xml:space="preserve">
 Based on the information provided, here are some banking service suggestions we can provide to this person:
-1. Savings account: As this person has been related with the bank for 20 years, they may already have a savings account with the bank. However, if they don't, it would be a good idea to suggest opening one to help them save and manage their money effectively.
-2. Checking account: A checking account can help this person manage their day-to-day expenses and transactions. It can also come with features such as online banking and mobile banking, making it convenient for them to access their funds.
-3. Investment options: With an income of 104 thousand, this person may be interested in investing their money. You can suggest different investment options such as mutual funds, stocks, or retirement accounts to help them grow their wealth.
-4. Insurance products: As this person has a family member, it would be wise to suggest insurance products such as life insurance, health insurance, or disability insurance to protect their loved ones in case of any unforeseen events.
-5. Online and mobile banking: With a credit card usage of 5.7, it is evident that this person is comfortable with digital transactions. You can suggest using online and mobile banking services to make their banking experience more convenient and efficient.
-6. Financial planning services: As this person is in their mid-40s, it would be a good idea to suggest financial planning services to help them plan for their future and achieve their financial goals.
-7. Credit counseling: If this person has a history of credit card usage, it would be beneficial to suggest credit counseling services to help them manage their debt and improve their credit score.
-8. Personalized financial advice: With their income and years related with the bank, this person may benefit from personalized financial advice. You can suggest setting up a meeting with a financial advisor to discuss their financial goals and create a plan to achieve them.</t>
+1. Savings Account: As this person has been related with the bank for 20 years, they may already have a savings account. However, if they do not, it would be a good idea to suggest opening one. This will help them save and manage their money effectively.
+2. Checking Account: A checking account can also be suggested to this person for their day-to-day banking needs. This will allow them to easily deposit and withdraw money, pay bills, and make purchases.
+3. Investment Options: With an income of 104 thousand and a long relationship with the bank, this person may be interested in investing their money. Suggesting investment options such as mutual funds, stocks, or bonds can help them grow their wealth.
+4. Retirement Planning: As this person is in their mid-40s, it would be a good idea to suggest retirement planning services. This will help them save for their future and ensure a comfortable retirement.
+5. Online and Mobile Banking: With a busy lifestyle, this person may benefit from the convenience of online and mobile banking. Suggesting these services will allow them to manage their finances on the go.
+6. Financial Planning: As this person has a good income and a long relationship with the bank, they may be interested in financial planning services. This can help them create a personalized financial plan to achieve their financial goals.
+7. Insurance: As this person has a family member and no mortgage, they may be interested in insurance options such as life insurance, health insurance, or home insurance. Suggesting these services can help them protect their assets and loved ones.
+8. Credit Monitoring: While we cannot provide credit card suggestions, we can still offer credit monitoring services to this person. This will help them keep track of their credit score and report, and protect them from identity theft.
+9. Education Savings: As this person has a low education level, suggesting education savings options such as a 529 plan can help them save for their own or their family member's education.
+10. Personalized Financial Advice: Lastly, it would be beneficial to offer personalized financial advice to this person based on their specific financial situation and goals. This can help them make informed decisions and improve their overall financial well-being.</t>
         </is>
       </c>
     </row>
